--- a/src/hdx/scraper/simland/input_data/sld_admpop_2019.xlsx
+++ b/src/hdx/scraper/simland/input_data/sld_admpop_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCHA\Training\2021 IMPACT\Phase 4 Simulation\SIM\02CODs\HDX Simland - Subnational Population Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCHA\Training\COD_SIM\20250311 SIM download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8577C8E7-9414-4D8E-B803-0AD66D91F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36C9470-E80E-41FA-A021-B5FC5AA97110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{182CCB9D-783F-4FBE-9446-BFC90D443DCE}"/>
+    <workbookView xWindow="28680" yWindow="-6240" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{182CCB9D-783F-4FBE-9446-BFC90D443DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="sim_admpop_adm0_2019" sheetId="5" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="sim_admpop_adm3_2019" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sim_admpop_adm0_2019!$A$1:$V$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sim_admpop_adm1_2019!$A$1:$X$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">sim_admpop_adm2_2019!$A$1:$Z$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sim_admpop_adm3_2019!$A$1:$AB$48</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">sim_admpop_adm0_2019!$A$1:$C$23</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">sim_admpop_adm1_2019!$A$1:$E$47</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">sim_admpop_adm2_2019!$A$1:$G$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sim_admpop_adm0_2019!$A$1:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sim_admpop_adm1_2019!$A$1:$X$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">sim_admpop_adm2_2019!$A$1:$Z$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">sim_admpop_adm3_2019!$A$1:$AB$47</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">sim_admpop_adm0_2019!$A$1:$C$2</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">sim_admpop_adm1_2019!$A$1:$E$4</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">sim_admpop_adm2_2019!$A$1:$G$20</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">sim_admpop_adm3_2019!$A$1:$I$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -691,14 +691,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -738,13 +737,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -764,9 +756,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -804,7 +796,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -910,7 +902,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1052,7 +1044,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,530 +1052,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB0B205-C79C-4529-B95E-B6F63BE0FE7E}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="19" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <f>SUM(sim_admpop_adm3_2019!I:I)</f>
         <v>38356958</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>SUM(sim_admpop_adm3_2019!J:J)</f>
         <v>9814800</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>SUM(sim_admpop_adm3_2019!K:K)</f>
         <v>28542154</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>SUM(sim_admpop_adm3_2019!L:L)</f>
         <v>19945619</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>SUM(sim_admpop_adm3_2019!M:M)</f>
         <v>18411338</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>SUM(sim_admpop_adm3_2019!N:N)</f>
         <v>4986404</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f>SUM(sim_admpop_adm3_2019!O:O)</f>
         <v>4602835</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f>SUM(sim_admpop_adm3_2019!P:P)</f>
         <v>4219260</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f>SUM(sim_admpop_adm3_2019!Q:Q)</f>
         <v>3835695</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <f>SUM(sim_admpop_adm3_2019!R:R)</f>
         <v>8438529</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <f>SUM(sim_admpop_adm3_2019!S:S)</f>
         <v>7671393</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <f>SUM(sim_admpop_adm3_2019!T:T)</f>
         <v>1342497</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <f>SUM(sim_admpop_adm3_2019!U:U)</f>
         <v>1342497</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <f>SUM(sim_admpop_adm3_2019!V:V)</f>
         <v>958924</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <f>SUM(sim_admpop_adm3_2019!W:W)</f>
         <v>958924</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <f>SUM(sim_admpop_adm3_2019!X:X)</f>
         <v>6392827</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <f>SUM(sim_admpop_adm3_2019!Y:Y)</f>
         <v>31095869</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <f>SUM(sim_admpop_adm3_2019!Z:Z)</f>
         <v>4146120</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
         <f>SUM(sim_admpop_adm3_2019!AA:AA)</f>
         <v>1966558</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <f>SUM(sim_admpop_adm3_2019!AB:AB)</f>
         <v>1148403</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:V37" xr:uid="{FD894286-CA33-4C01-83A9-FF83221B41FC}"/>
+  <autoFilter ref="A1:V2" xr:uid="{FD894286-CA33-4C01-83A9-FF83221B41FC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1591,107 +1239,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589C4A3C-36E9-4235-9D2D-5E96A0F7B229}">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="19" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:24" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1704,88 +1352,88 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>10662221</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>2903809</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>7758410</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>5544355</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>5117865</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>1386089</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>1279466</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>1172843</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>1066223</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>2345690</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>2132444</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>373178</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>373178</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>266556</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>266556</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>1777037</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>9809242</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>426489</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>266556</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D2)</f>
         <v>159932</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1798,88 +1446,88 @@
       <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>19003133</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>4823820</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>14179313</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>9881630</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>9121504</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>2470407</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>2280376</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>2090342</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>1900312</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>4180686</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>3800628</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>665111</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>665111</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>475079</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>475079</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>3167189</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>15202504</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>2850471</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>570094</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D3)</f>
         <v>380060</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1892,433 +1540,89 @@
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>8691604</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>2087171</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>6604431</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>4519634</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>4171969</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>1129908</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>1042993</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>956075</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>869160</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>1912153</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>1738321</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>304208</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>304208</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>217289</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>217289</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>1448601</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>6084123</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>869160</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>1129908</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$D:$D,sim_admpop_adm1_2019!$D4)</f>
         <v>608411</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:X48" xr:uid="{7B91C76E-1213-42DC-9B15-04AA5D4330B3}"/>
+  <autoFilter ref="A1:X4" xr:uid="{7B91C76E-1213-42DC-9B15-04AA5D4330B3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2326,114 +1630,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECFE991-80E3-465A-A680-1378A15D2243}">
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="9.109375" style="9"/>
-    <col min="23" max="23" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="9.140625" style="8"/>
+    <col min="23" max="23" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="19" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:26" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2452,88 +1756,88 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>2998186</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>899455</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>2098730</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>1559057</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>1439129</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>389764</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>359783</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>329800</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>299818</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>659602</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>599637</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>104937</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>104937</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>74955</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>74955</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>499697</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>2758330</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>119928</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>74955</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z2" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F2)</f>
         <v>44973</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2552,88 +1856,88 @@
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>463913</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>79130</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>384782</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>241235</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>222679</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>60309</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>55669</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>51031</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>46391</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>102060</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>92782</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>16237</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>16237</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>11598</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>11598</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>77319</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>371130</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>69588</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>13918</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F3)</f>
         <v>9278</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2652,88 +1956,88 @@
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>2437547</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>487510</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>1950037</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>1267525</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>1170022</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>316881</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>292506</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>268130</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>243755</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>536260</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>487510</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>85315</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>85315</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>60938</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>60938</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>406258</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>1950037</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>365632</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>73126</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F4)</f>
         <v>48750</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -2752,88 +2056,88 @@
       <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>3072896</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>805145</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>2267751</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>1597906</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>1474990</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>399476</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>368748</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>338019</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>307290</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>676037</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>614579</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>107552</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>107552</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>76823</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>76823</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>512150</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>2151027</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>307290</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>399476</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F5)</f>
         <v>215102</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2852,88 +2156,88 @@
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>256272</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>25627</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>230644</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>133261</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>123010</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>33315</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>30753</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>28189</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>25627</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>56380</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>51254</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>8970</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>8970</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>6406</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>6406</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>42712</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>179390</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>25627</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>33315</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F6)</f>
         <v>17939</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -2952,88 +2256,88 @@
       <c r="F7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>2997883</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>599577</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>2398306</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>1558899</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>1438983</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>389725</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>359746</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>329767</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>299788</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>659534</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>599577</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>104926</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>104926</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>74947</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>74947</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>499647</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>2398306</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>449683</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>89936</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F7)</f>
         <v>59958</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3052,88 +2356,88 @@
       <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>442836</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>44283</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>398552</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>230275</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>212561</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>57569</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>53140</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>48712</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>44283</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>97424</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>88567</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>15500</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>15500</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>11071</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>11071</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>73806</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>309986</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>44283</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>57569</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F8)</f>
         <v>30998</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3152,88 +2456,88 @@
       <c r="F9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>272756</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>27276</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>245480</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>141833</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>130923</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>35459</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>32730</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>30003</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>27276</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>60006</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>54551</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>9547</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>9547</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>6819</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>6819</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>45460</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>250935</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>10910</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>6819</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F9)</f>
         <v>4091</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -3252,88 +2556,88 @@
       <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>3295456</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>863765</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>2431691</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>1713637</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>1581819</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>428409</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>395454</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>362500</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>329546</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>725000</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>659091</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>115341</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>115341</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>82386</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>82386</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>549243</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>2306819</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>329546</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>428409</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F10)</f>
         <v>230682</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -3352,88 +2656,88 @@
       <c r="F11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>3552863</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>1065859</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>2487004</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>1847489</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>1705374</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>461872</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>426344</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>390815</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>355287</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>781630</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>710572</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>124350</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>124350</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>88822</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>88822</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>592144</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>3268634</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>142114</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>88822</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z11" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F11)</f>
         <v>53293</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -3452,88 +2756,88 @@
       <c r="F12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>813853</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>208390</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>605463</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>423203</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>390650</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>105801</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>97662</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>89523</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>81385</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>179047</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>162771</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>28485</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>28485</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>20346</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>20346</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>135642</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>651082</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>122078</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>24416</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F12)</f>
         <v>16276</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -3552,88 +2856,88 @@
       <c r="F13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>1273974</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>227323</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>1046651</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>662466</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>611508</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>165617</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>152877</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>140137</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>127397</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>280274</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>254795</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>44589</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>44589</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>31850</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>31850</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>212329</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>1019179</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>191096</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>38220</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="Z13" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F13)</f>
         <v>25479</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -3652,88 +2956,88 @@
       <c r="F14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>5128231</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>1538469</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>3589762</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>2666681</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>2461551</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>666670</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>615388</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>564105</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>512823</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>1128210</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>1025646</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>179488</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>179488</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>128206</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>128206</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>854706</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>4102585</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>769235</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>153847</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F14)</f>
         <v>102565</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -3752,88 +3056,88 @@
       <c r="F15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>2636887</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>791066</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>1845821</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>1371181</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>1265706</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>342796</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>316426</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>290057</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>263689</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>580115</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>527378</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>92291</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>92291</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>65922</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>65922</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>439481</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>2425937</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>105476</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>65922</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="Z15" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F15)</f>
         <v>39553</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3852,88 +3156,88 @@
       <c r="F16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>1724742</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>434523</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>1290218</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>896866</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>827876</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>224216</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>206969</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>189721</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>172474</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>379443</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>344949</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>60366</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>60366</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>43119</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>43119</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>287457</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>1379793</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>258711</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>51742</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F16)</f>
         <v>34495</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -3952,88 +3256,88 @@
       <c r="F17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>1624144</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>348351</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>1275793</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>844555</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>779589</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>211139</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>194898</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>178655</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>162414</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>357312</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>324830</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>56845</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>56845</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>40603</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>40603</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>270690</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>1136901</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>162414</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>211139</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z17" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F17)</f>
         <v>113690</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -4052,88 +3356,88 @@
       <c r="F18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>1201529</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>120153</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>1081375</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>624795</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>576733</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>156198</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>144183</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>132168</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>120153</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>264337</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>240306</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>42053</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>42053</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>30038</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>30038</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>200255</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>1105406</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>48061</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>30038</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="Z18" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F18)</f>
         <v>18022</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -4152,88 +3456,88 @@
       <c r="F19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>706364</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>211910</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>494455</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>367309</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>339054</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>91827</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>84764</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>77700</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>70637</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>155400</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>141273</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>24723</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>24723</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>17659</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>17659</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>117727</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>565091</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>105954</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>21190</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="Z19" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F19)</f>
         <v>14127</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -4252,441 +3556,89 @@
       <c r="F20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!I:I,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>3456626</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!J:J,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>1036988</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!K:K,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>2419639</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!L:L,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>1797446</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!M:M,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>1659181</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!N:N,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>449361</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!O:O,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>414795</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!P:P,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>380228</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Q:Q,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>345662</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!R:R,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>760458</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!S:S,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>691325</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!T:T,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>120982</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!U:U,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>120982</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!V:V,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>86416</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!W:W,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>86416</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!X:X,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>576104</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Y:Y,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>2765301</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!Z:Z,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>518494</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AA:AA,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>103699</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="Z20" s="6">
         <f>SUMIFS(sim_admpop_adm3_2019!AB:AB,sim_admpop_adm3_2019!$F:$F,sim_admpop_adm2_2019!$F20)</f>
         <v>69132</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:Z48" xr:uid="{AF604794-1321-4EF6-AE8C-04D885AF25C7}"/>
+  <autoFilter ref="A1:Z20" xr:uid="{AF604794-1321-4EF6-AE8C-04D885AF25C7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4697,119 +3649,119 @@
   <dimension ref="A1:AB47"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="9.109375" style="9"/>
-    <col min="25" max="25" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="9.140625" style="8"/>
+    <col min="25" max="25" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="19" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:28" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -4834,68 +3786,68 @@
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>773394</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>232018</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>541375</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>402165</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>371229</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>100541</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>92807</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>85073</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>77339</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>170147</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>154679</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>27069</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
         <v>27069</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <v>19335</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="6">
         <v>19335</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="6">
         <v>128899</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="6">
         <v>711522</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z2" s="6">
         <v>30936</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="6">
         <v>19335</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="6">
         <v>11601</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -4920,68 +3872,68 @@
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>22152</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>2215</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>19936</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>11519</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>10633</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>2880</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>2658</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>2437</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <v>2215</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <v>4873</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>4430</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <v>775</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <v>775</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>554</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <v>554</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <v>3692</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <v>17721</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="6">
         <v>3323</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="6">
         <v>665</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="6">
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -5006,68 +3958,68 @@
       <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>625819</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>125164</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>500655</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>325426</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>300393</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>81356</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>75098</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>68840</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>62582</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>137680</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <v>125164</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <v>21904</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="6">
         <v>21904</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="6">
         <v>15645</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="6">
         <v>15645</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>104303</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="6">
         <v>500655</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="6">
         <v>93873</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>18775</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="6">
         <v>12516</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -5092,68 +4044,68 @@
       <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>115516</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>11552</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>103964</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>60068</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>55448</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>15017</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>13862</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>12707</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>11552</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <v>25413</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>23103</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>4043</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>4043</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>2888</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <v>2888</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>19253</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>80861</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="6">
         <v>11552</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>15017</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="6">
         <v>8086</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -5178,68 +4130,68 @@
       <c r="H6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>10132</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>1013</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>9118</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>5268</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>4863</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>1317</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>1216</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>1114</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>1013</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>2229</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>2026</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <v>355</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>355</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>253</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <v>253</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>1689</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <v>7092</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="6">
         <v>1013</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>1317</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="6">
         <v>709</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -5264,68 +4216,68 @@
       <c r="H7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>1598838</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>319768</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>1279070</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>831396</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>767442</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>207849</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>191861</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>175872</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <v>159884</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <v>351744</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>319768</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <v>55959</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <v>55959</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <v>39971</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <v>39971</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <v>266473</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <v>1279070</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="6">
         <v>239826</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>47965</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="6">
         <v>31977</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5350,68 +4302,68 @@
       <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>104792</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>10479</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>94313</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>54492</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>50300</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>13623</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>12575</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>11527</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>10479</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>23054</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>20958</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <v>3668</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>3668</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>2620</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>2620</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>17465</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <v>73355</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="6">
         <v>10479</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="6">
         <v>13623</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="6">
         <v>7335</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -5436,68 +4388,68 @@
       <c r="H9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>246140</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>24614</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>221526</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>127993</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>118147</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>31998</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>29537</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>27075</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>24614</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <v>54151</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <v>49228</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <v>8615</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>8615</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <v>6153</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <v>6153</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="6">
         <v>41023</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="6">
         <v>172298</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="6">
         <v>24614</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="6">
         <v>31998</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="6">
         <v>17230</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -5522,68 +4474,68 @@
       <c r="H10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>895621</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>268686</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>626935</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>465723</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>429898</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>116431</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>107475</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>98518</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>89562</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>197037</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <v>179124</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <v>31347</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <v>31347</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="6">
         <v>22391</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <v>22391</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <v>149270</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="6">
         <v>823971</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="6">
         <v>35825</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="6">
         <v>22391</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="6">
         <v>13434</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -5608,68 +4560,68 @@
       <c r="H11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>95536</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>9554</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>85982</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>49679</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>45857</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>12420</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>11464</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>10509</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>9554</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <v>21018</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>19107</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>3344</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>3344</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <v>2388</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <v>2388</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <v>15923</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="6">
         <v>87893</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z11" s="6">
         <v>3821</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="6">
         <v>2388</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="6">
         <v>1433</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -5694,68 +4646,68 @@
       <c r="H12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>2046737</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>614021</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>1432716</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>1064303</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>982434</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>266076</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>245608</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>225141</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>204674</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <v>450282</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <v>409347</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="6">
         <v>71636</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>71636</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="6">
         <v>51168</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <v>51168</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="6">
         <v>341123</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="6">
         <v>1432716</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="6">
         <v>204674</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <v>266076</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="6">
         <v>143272</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -5780,68 +4732,68 @@
       <c r="H13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>1727707</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>518312</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>1209395</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>898408</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>829299</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>224602</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>207325</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <v>190048</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>172771</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="6">
         <v>380096</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="6">
         <v>345541</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <v>60470</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>60470</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="6">
         <v>43193</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="6">
         <v>43193</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="6">
         <v>287951</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="6">
         <v>1589490</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="Z13" s="6">
         <v>69108</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="6">
         <v>43193</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="6">
         <v>25916</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -5866,68 +4818,68 @@
       <c r="H14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>566010</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>169803</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>396207</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>294325</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>271685</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>73581</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>67921</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>62261</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>56601</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="6">
         <v>124522</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <v>113202</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <v>19810</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="6">
         <v>19810</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="6">
         <v>14150</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="6">
         <v>14150</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <v>94335</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="6">
         <v>452808</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="6">
         <v>84902</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="6">
         <v>16980</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="6">
         <v>11320</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -5952,68 +4904,68 @@
       <c r="H15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>338044</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>33804</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>304239</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>175783</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>162261</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <v>43946</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>40565</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <v>37185</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <v>33804</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="6">
         <v>74370</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="6">
         <v>67609</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="6">
         <v>11832</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="6">
         <v>11832</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="6">
         <v>8451</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="6">
         <v>8451</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="6">
         <v>56341</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="6">
         <v>236631</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="Z15" s="6">
         <v>33804</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="6">
         <v>43946</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="6">
         <v>23663</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -6038,68 +4990,68 @@
       <c r="H16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>378865</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>75773</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>303092</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>197010</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>181855</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>49252</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>45464</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <v>41675</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <v>37886</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="6">
         <v>83350</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <v>75773</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="6">
         <v>13260</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <v>13260</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <v>9472</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="6">
         <v>9472</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="6">
         <v>63144</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="6">
         <v>303092</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="6">
         <v>56830</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="6">
         <v>11366</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="6">
         <v>7577</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -6124,68 +5076,68 @@
       <c r="H17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>2227047</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>668114</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>1558933</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>1158065</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>1068983</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>289516</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>267246</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>244975</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>222705</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>489950</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>445409</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <v>77947</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>77947</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <v>55676</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="6">
         <v>55676</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="6">
         <v>371175</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="6">
         <v>1781638</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z17" s="6">
         <v>334057</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="6">
         <v>66811</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="6">
         <v>44541</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -6210,68 +5162,68 @@
       <c r="H18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>1296419</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>388926</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>907493</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>674138</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>622281</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <v>168535</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <v>155570</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="6">
         <v>142606</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="6">
         <v>129642</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="6">
         <v>285212</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="6">
         <v>259284</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="6">
         <v>45375</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="6">
         <v>45375</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="6">
         <v>32410</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="6">
         <v>32410</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="6">
         <v>216070</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="6">
         <v>1192706</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="Z18" s="6">
         <v>51857</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA18" s="6">
         <v>32410</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="6">
         <v>19446</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
@@ -6296,68 +5248,68 @@
       <c r="H19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>1340468</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>402140</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>938328</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>697043</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>643425</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>174261</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <v>160856</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="6">
         <v>147451</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <v>134047</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="6">
         <v>294903</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="6">
         <v>268094</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="6">
         <v>46916</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="6">
         <v>46916</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="6">
         <v>33512</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="6">
         <v>33512</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="6">
         <v>223411</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="6">
         <v>1233231</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="Z19" s="6">
         <v>53619</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AA19" s="6">
         <v>33512</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AB19" s="6">
         <v>20107</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -6382,68 +5334,68 @@
       <c r="H20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>2489273</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>746782</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>1742491</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>1294422</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>1194851</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <v>323605</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <v>298713</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="6">
         <v>273820</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="6">
         <v>248927</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="6">
         <v>547640</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="6">
         <v>497855</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="6">
         <v>87125</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="6">
         <v>87125</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="6">
         <v>62232</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="6">
         <v>62232</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="6">
         <v>414879</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="6">
         <v>1742491</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="Z20" s="6">
         <v>248927</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AA20" s="6">
         <v>323605</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="6">
         <v>174249</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -6468,68 +5420,68 @@
       <c r="H21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>468107</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>46811</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>421296</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>243416</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>224691</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <v>60854</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <v>56173</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="6">
         <v>51492</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="6">
         <v>46811</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="6">
         <v>102984</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="6">
         <v>93621</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="6">
         <v>16384</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="6">
         <v>16384</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="6">
         <v>11703</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="6">
         <v>11703</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="6">
         <v>78018</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="6">
         <v>327675</v>
       </c>
-      <c r="Z21" s="7">
+      <c r="Z21" s="6">
         <v>46811</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AA21" s="6">
         <v>60854</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AB21" s="6">
         <v>32767</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -6554,68 +5506,68 @@
       <c r="H22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>828994</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>165799</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>663195</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>431077</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>397917</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <v>107769</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <v>99479</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="6">
         <v>91189</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="6">
         <v>82899</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="6">
         <v>182379</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="6">
         <v>165799</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="6">
         <v>29015</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="6">
         <v>29015</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="6">
         <v>20725</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="6">
         <v>20725</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="6">
         <v>138166</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="6">
         <v>663195</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="Z22" s="6">
         <v>124349</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="6">
         <v>24870</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="6">
         <v>16580</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -6640,68 +5592,68 @@
       <c r="H23" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>1248719</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>249744</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>998975</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>649334</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>599385</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <v>162333</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="6">
         <v>149846</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="6">
         <v>137359</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="6">
         <v>124872</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="6">
         <v>274718</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="6">
         <v>249744</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="6">
         <v>43705</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="6">
         <v>43705</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="6">
         <v>31218</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="6">
         <v>31218</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="6">
         <v>208120</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Y23" s="6">
         <v>874103</v>
       </c>
-      <c r="Z23" s="7">
+      <c r="Z23" s="6">
         <v>124872</v>
       </c>
-      <c r="AA23" s="7">
+      <c r="AA23" s="6">
         <v>162333</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AB23" s="6">
         <v>87410</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -6726,68 +5678,68 @@
       <c r="H24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>563013</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>56301</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>506712</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>292767</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>270246</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <v>73192</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="6">
         <v>67562</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="6">
         <v>61931</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="6">
         <v>56301</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="6">
         <v>123863</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="6">
         <v>112603</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="6">
         <v>19705</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="6">
         <v>19705</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="6">
         <v>14075</v>
       </c>
-      <c r="W24" s="7">
+      <c r="W24" s="6">
         <v>14075</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X24" s="6">
         <v>93835</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Y24" s="6">
         <v>394109</v>
       </c>
-      <c r="Z24" s="7">
+      <c r="Z24" s="6">
         <v>56301</v>
       </c>
-      <c r="AA24" s="7">
+      <c r="AA24" s="6">
         <v>73192</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AB24" s="6">
         <v>39411</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
@@ -6812,68 +5764,68 @@
       <c r="H25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>185500</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>18550</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>166950</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <v>96460</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>89040</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <v>24115</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="6">
         <v>22260</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="6">
         <v>20405</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="6">
         <v>18550</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="6">
         <v>40810</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="6">
         <v>37100</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="6">
         <v>6492</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="6">
         <v>6492</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="6">
         <v>4637</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="6">
         <v>4637</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="6">
         <v>30917</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="6">
         <v>170660</v>
       </c>
-      <c r="Z25" s="7">
+      <c r="Z25" s="6">
         <v>7420</v>
       </c>
-      <c r="AA25" s="7">
+      <c r="AA25" s="6">
         <v>4637</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AB25" s="6">
         <v>2782</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -6898,68 +5850,68 @@
       <c r="H26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>1399045</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>279809</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>1119236</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <v>727503</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>671541</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <v>181876</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="6">
         <v>167885</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="6">
         <v>153895</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="6">
         <v>139904</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="6">
         <v>307790</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="6">
         <v>279809</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="6">
         <v>48967</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="6">
         <v>48967</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="6">
         <v>34976</v>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="6">
         <v>34976</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="6">
         <v>233174</v>
       </c>
-      <c r="Y26" s="7">
+      <c r="Y26" s="6">
         <v>1119236</v>
       </c>
-      <c r="Z26" s="7">
+      <c r="Z26" s="6">
         <v>209857</v>
       </c>
-      <c r="AA26" s="7">
+      <c r="AA26" s="6">
         <v>41971</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AB26" s="6">
         <v>27981</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
@@ -6984,68 +5936,68 @@
       <c r="H27" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>895748</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>268724</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <v>627023</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <v>465789</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>429959</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <v>116447</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="6">
         <v>107490</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="6">
         <v>98532</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="6">
         <v>89575</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="6">
         <v>197064</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="6">
         <v>179150</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T27" s="6">
         <v>31351</v>
       </c>
-      <c r="U27" s="7">
+      <c r="U27" s="6">
         <v>31351</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="6">
         <v>22394</v>
       </c>
-      <c r="W27" s="7">
+      <c r="W27" s="6">
         <v>22394</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="6">
         <v>149291</v>
       </c>
-      <c r="Y27" s="7">
+      <c r="Y27" s="6">
         <v>716598</v>
       </c>
-      <c r="Z27" s="7">
+      <c r="Z27" s="6">
         <v>134362</v>
       </c>
-      <c r="AA27" s="7">
+      <c r="AA27" s="6">
         <v>26872</v>
       </c>
-      <c r="AB27" s="7">
+      <c r="AB27" s="6">
         <v>17915</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -7070,68 +6022,68 @@
       <c r="H28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>327391</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>65478</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <v>261913</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <v>170243</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>157148</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <v>42561</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="6">
         <v>39287</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="6">
         <v>36013</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="6">
         <v>32739</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="6">
         <v>72026</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="6">
         <v>65478</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="6">
         <v>11459</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U28" s="6">
         <v>11459</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="6">
         <v>8185</v>
       </c>
-      <c r="W28" s="7">
+      <c r="W28" s="6">
         <v>8185</v>
       </c>
-      <c r="X28" s="7">
+      <c r="X28" s="6">
         <v>54565</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="Y28" s="6">
         <v>261913</v>
       </c>
-      <c r="Z28" s="7">
+      <c r="Z28" s="6">
         <v>49109</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AA28" s="6">
         <v>9822</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AB28" s="6">
         <v>6548</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -7156,68 +6108,68 @@
       <c r="H29" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>122203</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>12220</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>109982</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <v>63545</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>58657</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>15886</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="6">
         <v>14664</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="6">
         <v>13442</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="6">
         <v>12220</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="6">
         <v>26885</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="6">
         <v>24441</v>
       </c>
-      <c r="T29" s="7">
+      <c r="T29" s="6">
         <v>4277</v>
       </c>
-      <c r="U29" s="7">
+      <c r="U29" s="6">
         <v>4277</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29" s="6">
         <v>3055</v>
       </c>
-      <c r="W29" s="7">
+      <c r="W29" s="6">
         <v>3055</v>
       </c>
-      <c r="X29" s="7">
+      <c r="X29" s="6">
         <v>20367</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="Y29" s="6">
         <v>112426</v>
       </c>
-      <c r="Z29" s="7">
+      <c r="Z29" s="6">
         <v>4888</v>
       </c>
-      <c r="AA29" s="7">
+      <c r="AA29" s="6">
         <v>3055</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AB29" s="6">
         <v>1833</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -7242,68 +6194,68 @@
       <c r="H30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>131448</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <v>13145</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <v>118303</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <v>68353</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>63095</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="6">
         <v>17088</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="6">
         <v>15774</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="6">
         <v>14459</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="6">
         <v>13145</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R30" s="6">
         <v>28919</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="6">
         <v>26290</v>
       </c>
-      <c r="T30" s="7">
+      <c r="T30" s="6">
         <v>4601</v>
       </c>
-      <c r="U30" s="7">
+      <c r="U30" s="6">
         <v>4601</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V30" s="6">
         <v>3286</v>
       </c>
-      <c r="W30" s="7">
+      <c r="W30" s="6">
         <v>3286</v>
       </c>
-      <c r="X30" s="7">
+      <c r="X30" s="6">
         <v>21908</v>
       </c>
-      <c r="Y30" s="7">
+      <c r="Y30" s="6">
         <v>92014</v>
       </c>
-      <c r="Z30" s="7">
+      <c r="Z30" s="6">
         <v>13145</v>
       </c>
-      <c r="AA30" s="7">
+      <c r="AA30" s="6">
         <v>17088</v>
       </c>
-      <c r="AB30" s="7">
+      <c r="AB30" s="6">
         <v>9201</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
@@ -7328,68 +6280,68 @@
       <c r="H31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>2901184</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>870355</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <v>2030829</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <v>1508616</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <v>1392568</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <v>377154</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <v>348142</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="6">
         <v>319130</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="6">
         <v>290118</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="6">
         <v>638260</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="6">
         <v>580237</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T31" s="6">
         <v>101541</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U31" s="6">
         <v>101541</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="6">
         <v>72530</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="6">
         <v>72530</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="6">
         <v>483531</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y31" s="6">
         <v>2320947</v>
       </c>
-      <c r="Z31" s="7">
+      <c r="Z31" s="6">
         <v>435178</v>
       </c>
-      <c r="AA31" s="7">
+      <c r="AA31" s="6">
         <v>87036</v>
       </c>
-      <c r="AB31" s="7">
+      <c r="AB31" s="6">
         <v>58024</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -7414,68 +6366,68 @@
       <c r="H32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>167749</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>50325</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <v>117424</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <v>87229</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="6">
         <v>80519</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <v>21807</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="6">
         <v>20130</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="6">
         <v>18452</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="6">
         <v>16775</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32" s="6">
         <v>36905</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="6">
         <v>33550</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="6">
         <v>5871</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="6">
         <v>5871</v>
       </c>
-      <c r="V32" s="7">
+      <c r="V32" s="6">
         <v>4194</v>
       </c>
-      <c r="W32" s="7">
+      <c r="W32" s="6">
         <v>4194</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="6">
         <v>27958</v>
       </c>
-      <c r="Y32" s="7">
+      <c r="Y32" s="6">
         <v>134199</v>
       </c>
-      <c r="Z32" s="7">
+      <c r="Z32" s="6">
         <v>25162</v>
       </c>
-      <c r="AA32" s="7">
+      <c r="AA32" s="6">
         <v>5032</v>
       </c>
-      <c r="AB32" s="7">
+      <c r="AB32" s="6">
         <v>3355</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
@@ -7500,68 +6452,68 @@
       <c r="H33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>109820</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>10982</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <v>98838</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <v>57106</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>52714</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <v>14277</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="6">
         <v>13178</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="6">
         <v>12080</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="6">
         <v>10982</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="6">
         <v>24160</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="6">
         <v>21964</v>
       </c>
-      <c r="T33" s="7">
+      <c r="T33" s="6">
         <v>3844</v>
       </c>
-      <c r="U33" s="7">
+      <c r="U33" s="6">
         <v>3844</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="6">
         <v>2745</v>
       </c>
-      <c r="W33" s="7">
+      <c r="W33" s="6">
         <v>2745</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="6">
         <v>18303</v>
       </c>
-      <c r="Y33" s="7">
+      <c r="Y33" s="6">
         <v>87856</v>
       </c>
-      <c r="Z33" s="7">
+      <c r="Z33" s="6">
         <v>16473</v>
       </c>
-      <c r="AA33" s="7">
+      <c r="AA33" s="6">
         <v>3295</v>
       </c>
-      <c r="AB33" s="7">
+      <c r="AB33" s="6">
         <v>2196</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -7586,68 +6538,68 @@
       <c r="H34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>538615</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>161585</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <v>377031</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <v>280080</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>258535</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <v>70020</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="6">
         <v>64634</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="6">
         <v>59248</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="6">
         <v>53862</v>
       </c>
-      <c r="R34" s="7">
+      <c r="R34" s="6">
         <v>118495</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="6">
         <v>107723</v>
       </c>
-      <c r="T34" s="7">
+      <c r="T34" s="6">
         <v>18852</v>
       </c>
-      <c r="U34" s="7">
+      <c r="U34" s="6">
         <v>18852</v>
       </c>
-      <c r="V34" s="7">
+      <c r="V34" s="6">
         <v>13465</v>
       </c>
-      <c r="W34" s="7">
+      <c r="W34" s="6">
         <v>13465</v>
       </c>
-      <c r="X34" s="7">
+      <c r="X34" s="6">
         <v>89769</v>
       </c>
-      <c r="Y34" s="7">
+      <c r="Y34" s="6">
         <v>430892</v>
       </c>
-      <c r="Z34" s="7">
+      <c r="Z34" s="6">
         <v>80792</v>
       </c>
-      <c r="AA34" s="7">
+      <c r="AA34" s="6">
         <v>16158</v>
       </c>
-      <c r="AB34" s="7">
+      <c r="AB34" s="6">
         <v>10772</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
@@ -7672,68 +6624,68 @@
       <c r="H35" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>177220</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>17722</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <v>159498</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <v>92154</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="6">
         <v>85066</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <v>23039</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="6">
         <v>21266</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="6">
         <v>19494</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="6">
         <v>17722</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="6">
         <v>38988</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="6">
         <v>35444</v>
       </c>
-      <c r="T35" s="7">
+      <c r="T35" s="6">
         <v>6203</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35" s="6">
         <v>6203</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="6">
         <v>4431</v>
       </c>
-      <c r="W35" s="7">
+      <c r="W35" s="6">
         <v>4431</v>
       </c>
-      <c r="X35" s="7">
+      <c r="X35" s="6">
         <v>29537</v>
       </c>
-      <c r="Y35" s="7">
+      <c r="Y35" s="6">
         <v>163042</v>
       </c>
-      <c r="Z35" s="7">
+      <c r="Z35" s="6">
         <v>7089</v>
       </c>
-      <c r="AA35" s="7">
+      <c r="AA35" s="6">
         <v>4431</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AB35" s="6">
         <v>2658</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -7758,68 +6710,68 @@
       <c r="H36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>274720</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>27472</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <v>247248</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <v>142854</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="6">
         <v>131866</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="6">
         <v>35714</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="6">
         <v>32966</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="6">
         <v>30219</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="6">
         <v>27472</v>
       </c>
-      <c r="R36" s="7">
+      <c r="R36" s="6">
         <v>60438</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S36" s="6">
         <v>54944</v>
       </c>
-      <c r="T36" s="7">
+      <c r="T36" s="6">
         <v>9615</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="6">
         <v>9615</v>
       </c>
-      <c r="V36" s="7">
+      <c r="V36" s="6">
         <v>6868</v>
       </c>
-      <c r="W36" s="7">
+      <c r="W36" s="6">
         <v>6868</v>
       </c>
-      <c r="X36" s="7">
+      <c r="X36" s="6">
         <v>45787</v>
       </c>
-      <c r="Y36" s="7">
+      <c r="Y36" s="6">
         <v>219776</v>
       </c>
-      <c r="Z36" s="7">
+      <c r="Z36" s="6">
         <v>41208</v>
       </c>
-      <c r="AA36" s="7">
+      <c r="AA36" s="6">
         <v>8242</v>
       </c>
-      <c r="AB36" s="7">
+      <c r="AB36" s="6">
         <v>5494</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -7844,68 +6796,68 @@
       <c r="H37" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>874815</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>174963</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <v>699852</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <v>454904</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>419911</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <v>113726</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="6">
         <v>104978</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="6">
         <v>96230</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="6">
         <v>87482</v>
       </c>
-      <c r="R37" s="7">
+      <c r="R37" s="6">
         <v>192459</v>
       </c>
-      <c r="S37" s="7">
+      <c r="S37" s="6">
         <v>174963</v>
       </c>
-      <c r="T37" s="7">
+      <c r="T37" s="6">
         <v>30619</v>
       </c>
-      <c r="U37" s="7">
+      <c r="U37" s="6">
         <v>30619</v>
       </c>
-      <c r="V37" s="7">
+      <c r="V37" s="6">
         <v>21870</v>
       </c>
-      <c r="W37" s="7">
+      <c r="W37" s="6">
         <v>21870</v>
       </c>
-      <c r="X37" s="7">
+      <c r="X37" s="6">
         <v>145803</v>
       </c>
-      <c r="Y37" s="7">
+      <c r="Y37" s="6">
         <v>699852</v>
       </c>
-      <c r="Z37" s="7">
+      <c r="Z37" s="6">
         <v>131222</v>
       </c>
-      <c r="AA37" s="7">
+      <c r="AA37" s="6">
         <v>26244</v>
       </c>
-      <c r="AB37" s="7">
+      <c r="AB37" s="6">
         <v>17496</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -7930,68 +6882,68 @@
       <c r="H38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>138023</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <v>27605</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="6">
         <v>110418</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <v>71772</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <v>66251</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <v>17943</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="6">
         <v>16563</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="6">
         <v>15182</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="6">
         <v>13802</v>
       </c>
-      <c r="R38" s="7">
+      <c r="R38" s="6">
         <v>30365</v>
       </c>
-      <c r="S38" s="7">
+      <c r="S38" s="6">
         <v>27605</v>
       </c>
-      <c r="T38" s="7">
+      <c r="T38" s="6">
         <v>4831</v>
       </c>
-      <c r="U38" s="7">
+      <c r="U38" s="6">
         <v>4831</v>
       </c>
-      <c r="V38" s="7">
+      <c r="V38" s="6">
         <v>3451</v>
       </c>
-      <c r="W38" s="7">
+      <c r="W38" s="6">
         <v>3451</v>
       </c>
-      <c r="X38" s="7">
+      <c r="X38" s="6">
         <v>23004</v>
       </c>
-      <c r="Y38" s="7">
+      <c r="Y38" s="6">
         <v>110418</v>
       </c>
-      <c r="Z38" s="7">
+      <c r="Z38" s="6">
         <v>20703</v>
       </c>
-      <c r="AA38" s="7">
+      <c r="AA38" s="6">
         <v>4141</v>
       </c>
-      <c r="AB38" s="7">
+      <c r="AB38" s="6">
         <v>2760</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -8016,68 +6968,68 @@
       <c r="H39" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>929683</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <v>278905</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <v>650778</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <v>483435</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="6">
         <v>446248</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="6">
         <v>120859</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="6">
         <v>111562</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="6">
         <v>102265</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="6">
         <v>92968</v>
       </c>
-      <c r="R39" s="7">
+      <c r="R39" s="6">
         <v>204530</v>
       </c>
-      <c r="S39" s="7">
+      <c r="S39" s="6">
         <v>185937</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="6">
         <v>32539</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="6">
         <v>32539</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="6">
         <v>23242</v>
       </c>
-      <c r="W39" s="7">
+      <c r="W39" s="6">
         <v>23242</v>
       </c>
-      <c r="X39" s="7">
+      <c r="X39" s="6">
         <v>154947</v>
       </c>
-      <c r="Y39" s="7">
+      <c r="Y39" s="6">
         <v>650778</v>
       </c>
-      <c r="Z39" s="7">
+      <c r="Z39" s="6">
         <v>92968</v>
       </c>
-      <c r="AA39" s="7">
+      <c r="AA39" s="6">
         <v>120859</v>
       </c>
-      <c r="AB39" s="7">
+      <c r="AB39" s="6">
         <v>65078</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -8102,68 +7054,68 @@
       <c r="H40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>1122804</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <v>336841</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
         <v>785963</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <v>583858</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="6">
         <v>538946</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="6">
         <v>145964</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="6">
         <v>134736</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="6">
         <v>123508</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="6">
         <v>112280</v>
       </c>
-      <c r="R40" s="7">
+      <c r="R40" s="6">
         <v>247017</v>
       </c>
-      <c r="S40" s="7">
+      <c r="S40" s="6">
         <v>224561</v>
       </c>
-      <c r="T40" s="7">
+      <c r="T40" s="6">
         <v>39298</v>
       </c>
-      <c r="U40" s="7">
+      <c r="U40" s="6">
         <v>39298</v>
       </c>
-      <c r="V40" s="7">
+      <c r="V40" s="6">
         <v>28070</v>
       </c>
-      <c r="W40" s="7">
+      <c r="W40" s="6">
         <v>28070</v>
       </c>
-      <c r="X40" s="7">
+      <c r="X40" s="6">
         <v>187134</v>
       </c>
-      <c r="Y40" s="7">
+      <c r="Y40" s="6">
         <v>898243</v>
       </c>
-      <c r="Z40" s="7">
+      <c r="Z40" s="6">
         <v>168421</v>
       </c>
-      <c r="AA40" s="7">
+      <c r="AA40" s="6">
         <v>33684</v>
       </c>
-      <c r="AB40" s="7">
+      <c r="AB40" s="6">
         <v>22456</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
@@ -8188,68 +7140,68 @@
       <c r="H41" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>893826</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <v>89383</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <v>804443</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <v>464790</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="6">
         <v>429036</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="6">
         <v>116197</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="6">
         <v>107259</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="6">
         <v>98321</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="6">
         <v>89383</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="6">
         <v>196642</v>
       </c>
-      <c r="S41" s="7">
+      <c r="S41" s="6">
         <v>178765</v>
       </c>
-      <c r="T41" s="7">
+      <c r="T41" s="6">
         <v>31284</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="6">
         <v>31284</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="6">
         <v>22346</v>
       </c>
-      <c r="W41" s="7">
+      <c r="W41" s="6">
         <v>22346</v>
       </c>
-      <c r="X41" s="7">
+      <c r="X41" s="6">
         <v>148971</v>
       </c>
-      <c r="Y41" s="7">
+      <c r="Y41" s="6">
         <v>822320</v>
       </c>
-      <c r="Z41" s="7">
+      <c r="Z41" s="6">
         <v>35753</v>
       </c>
-      <c r="AA41" s="7">
+      <c r="AA41" s="6">
         <v>22346</v>
       </c>
-      <c r="AB41" s="7">
+      <c r="AB41" s="6">
         <v>13407</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -8274,68 +7226,68 @@
       <c r="H42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>2333822</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <v>700147</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="6">
         <v>1633676</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <v>1213588</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="6">
         <v>1120235</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="6">
         <v>303397</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="6">
         <v>280059</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="6">
         <v>256720</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="6">
         <v>233382</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="6">
         <v>513441</v>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="6">
         <v>466764</v>
       </c>
-      <c r="T42" s="7">
+      <c r="T42" s="6">
         <v>81684</v>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="6">
         <v>81684</v>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="6">
         <v>58346</v>
       </c>
-      <c r="W42" s="7">
+      <c r="W42" s="6">
         <v>58346</v>
       </c>
-      <c r="X42" s="7">
+      <c r="X42" s="6">
         <v>388970</v>
       </c>
-      <c r="Y42" s="7">
+      <c r="Y42" s="6">
         <v>1867058</v>
       </c>
-      <c r="Z42" s="7">
+      <c r="Z42" s="6">
         <v>350073</v>
       </c>
-      <c r="AA42" s="7">
+      <c r="AA42" s="6">
         <v>70015</v>
       </c>
-      <c r="AB42" s="7">
+      <c r="AB42" s="6">
         <v>46676</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>6</v>
       </c>
@@ -8360,68 +7312,68 @@
       <c r="H43" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>620389</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <v>124078</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="6">
         <v>496311</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <v>322602</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="6">
         <v>297787</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="6">
         <v>80651</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="6">
         <v>74447</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="6">
         <v>68243</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="6">
         <v>62039</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="6">
         <v>136486</v>
       </c>
-      <c r="S43" s="7">
+      <c r="S43" s="6">
         <v>124078</v>
       </c>
-      <c r="T43" s="7">
+      <c r="T43" s="6">
         <v>21714</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="6">
         <v>21714</v>
       </c>
-      <c r="V43" s="7">
+      <c r="V43" s="6">
         <v>15510</v>
       </c>
-      <c r="W43" s="7">
+      <c r="W43" s="6">
         <v>15510</v>
       </c>
-      <c r="X43" s="7">
+      <c r="X43" s="6">
         <v>103398</v>
       </c>
-      <c r="Y43" s="7">
+      <c r="Y43" s="6">
         <v>496311</v>
       </c>
-      <c r="Z43" s="7">
+      <c r="Z43" s="6">
         <v>93058</v>
       </c>
-      <c r="AA43" s="7">
+      <c r="AA43" s="6">
         <v>18612</v>
       </c>
-      <c r="AB43" s="7">
+      <c r="AB43" s="6">
         <v>12408</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
@@ -8446,68 +7398,68 @@
       <c r="H44" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>936913</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <v>187383</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="6">
         <v>749530</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="6">
         <v>487195</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="6">
         <v>449718</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="6">
         <v>121799</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="6">
         <v>112430</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="6">
         <v>103060</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="6">
         <v>93691</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="6">
         <v>206121</v>
       </c>
-      <c r="S44" s="7">
+      <c r="S44" s="6">
         <v>187383</v>
       </c>
-      <c r="T44" s="7">
+      <c r="T44" s="6">
         <v>32792</v>
       </c>
-      <c r="U44" s="7">
+      <c r="U44" s="6">
         <v>32792</v>
       </c>
-      <c r="V44" s="7">
+      <c r="V44" s="6">
         <v>23423</v>
       </c>
-      <c r="W44" s="7">
+      <c r="W44" s="6">
         <v>23423</v>
       </c>
-      <c r="X44" s="7">
+      <c r="X44" s="6">
         <v>156152</v>
       </c>
-      <c r="Y44" s="7">
+      <c r="Y44" s="6">
         <v>749530</v>
       </c>
-      <c r="Z44" s="7">
+      <c r="Z44" s="6">
         <v>140537</v>
       </c>
-      <c r="AA44" s="7">
+      <c r="AA44" s="6">
         <v>28107</v>
       </c>
-      <c r="AB44" s="7">
+      <c r="AB44" s="6">
         <v>18738</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -8532,68 +7484,68 @@
       <c r="H45" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>1329171</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <v>398751</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <v>930420</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <v>691169</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <v>638002</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="6">
         <v>172792</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="6">
         <v>159501</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="6">
         <v>146209</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="6">
         <v>132917</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="6">
         <v>292418</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S45" s="6">
         <v>265834</v>
       </c>
-      <c r="T45" s="7">
+      <c r="T45" s="6">
         <v>46521</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="6">
         <v>46521</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V45" s="6">
         <v>33229</v>
       </c>
-      <c r="W45" s="7">
+      <c r="W45" s="6">
         <v>33229</v>
       </c>
-      <c r="X45" s="7">
+      <c r="X45" s="6">
         <v>221528</v>
       </c>
-      <c r="Y45" s="7">
+      <c r="Y45" s="6">
         <v>1222837</v>
       </c>
-      <c r="Z45" s="7">
+      <c r="Z45" s="6">
         <v>53167</v>
       </c>
-      <c r="AA45" s="7">
+      <c r="AA45" s="6">
         <v>33229</v>
       </c>
-      <c r="AB45" s="7">
+      <c r="AB45" s="6">
         <v>19938</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -8618,68 +7570,68 @@
       <c r="H46" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>114370</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <v>11437</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="6">
         <v>102933</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="6">
         <v>59473</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="6">
         <v>54898</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="6">
         <v>14868</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="6">
         <v>13724</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="6">
         <v>12581</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="6">
         <v>11437</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="6">
         <v>25161</v>
       </c>
-      <c r="S46" s="7">
+      <c r="S46" s="6">
         <v>22874</v>
       </c>
-      <c r="T46" s="7">
+      <c r="T46" s="6">
         <v>4003</v>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="6">
         <v>4003</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="6">
         <v>2859</v>
       </c>
-      <c r="W46" s="7">
+      <c r="W46" s="6">
         <v>2859</v>
       </c>
-      <c r="X46" s="7">
+      <c r="X46" s="6">
         <v>19062</v>
       </c>
-      <c r="Y46" s="7">
+      <c r="Y46" s="6">
         <v>91496</v>
       </c>
-      <c r="Z46" s="7">
+      <c r="Z46" s="6">
         <v>17156</v>
       </c>
-      <c r="AA46" s="7">
+      <c r="AA46" s="6">
         <v>3431</v>
       </c>
-      <c r="AB46" s="7">
+      <c r="AB46" s="6">
         <v>2287</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
@@ -8704,69 +7656,69 @@
       <c r="H47" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>1825156</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <v>547547</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <v>1277609</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="6">
         <v>949081</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="6">
         <v>876075</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="6">
         <v>237270</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="6">
         <v>219019</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="6">
         <v>200767</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="6">
         <v>182516</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="6">
         <v>401534</v>
       </c>
-      <c r="S47" s="7">
+      <c r="S47" s="6">
         <v>365031</v>
       </c>
-      <c r="T47" s="7">
+      <c r="T47" s="6">
         <v>63880</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="6">
         <v>63880</v>
       </c>
-      <c r="V47" s="7">
+      <c r="V47" s="6">
         <v>45629</v>
       </c>
-      <c r="W47" s="7">
+      <c r="W47" s="6">
         <v>45629</v>
       </c>
-      <c r="X47" s="7">
+      <c r="X47" s="6">
         <v>304193</v>
       </c>
-      <c r="Y47" s="7">
+      <c r="Y47" s="6">
         <v>1679144</v>
       </c>
-      <c r="Z47" s="7">
+      <c r="Z47" s="6">
         <v>73006</v>
       </c>
-      <c r="AA47" s="7">
+      <c r="AA47" s="6">
         <v>45629</v>
       </c>
-      <c r="AB47" s="7">
+      <c r="AB47" s="6">
         <v>27377</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB48" xr:uid="{772C579D-0568-4615-9F69-C344490FF39B}"/>
+  <autoFilter ref="A1:AB47" xr:uid="{772C579D-0568-4615-9F69-C344490FF39B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
